--- a/data/ESPECIFICACION_REQUERIMIENTOS_GENERALES_ITERACION3.xlsx
+++ b/data/ESPECIFICACION_REQUERIMIENTOS_GENERALES_ITERACION3.xlsx
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="E171" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
